--- a/www/IndicatorsPerCountry/Djibouti_GDPperCapita_TerritorialRef_1977_2012_CCode_262.xlsx
+++ b/www/IndicatorsPerCountry/Djibouti_GDPperCapita_TerritorialRef_1977_2012_CCode_262.xlsx
@@ -234,13 +234,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Djibouti_GDPperCapita_TerritorialRef_1977_2012_CCode_262.xlsx
+++ b/www/IndicatorsPerCountry/Djibouti_GDPperCapita_TerritorialRef_1977_2012_CCode_262.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="85">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,175 +36,202 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>1546</t>
-  </si>
-  <si>
-    <t>1554</t>
-  </si>
-  <si>
-    <t>1575</t>
-  </si>
-  <si>
-    <t>1622</t>
-  </si>
-  <si>
-    <t>1632</t>
-  </si>
-  <si>
-    <t>1651</t>
-  </si>
-  <si>
-    <t>1668</t>
-  </si>
-  <si>
-    <t>1665</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1771</t>
-  </si>
-  <si>
-    <t>1783</t>
-  </si>
-  <si>
-    <t>1759</t>
-  </si>
-  <si>
-    <t>1774</t>
-  </si>
-  <si>
-    <t>1758</t>
-  </si>
-  <si>
-    <t>1754</t>
-  </si>
-  <si>
-    <t>1761</t>
-  </si>
-  <si>
-    <t>1746</t>
-  </si>
-  <si>
-    <t>1742</t>
-  </si>
-  <si>
-    <t>2069</t>
-  </si>
-  <si>
-    <t>2142</t>
-  </si>
-  <si>
-    <t>2150</t>
-  </si>
-  <si>
-    <t>2185</t>
-  </si>
-  <si>
-    <t>2080</t>
-  </si>
-  <si>
-    <t>2065</t>
-  </si>
-  <si>
-    <t>2154</t>
-  </si>
-  <si>
-    <t>1794</t>
-  </si>
-  <si>
-    <t>1724</t>
-  </si>
-  <si>
-    <t>1687</t>
-  </si>
-  <si>
-    <t>1661</t>
-  </si>
-  <si>
-    <t>1674</t>
-  </si>
-  <si>
-    <t>1676</t>
-  </si>
-  <si>
-    <t>1643</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1717</t>
-  </si>
-  <si>
-    <t>1677</t>
-  </si>
-  <si>
-    <t>1597</t>
-  </si>
-  <si>
-    <t>1502</t>
-  </si>
-  <si>
-    <t>1447.73934136</t>
-  </si>
-  <si>
-    <t>1419.54070469</t>
-  </si>
-  <si>
-    <t>1383.77299847</t>
-  </si>
-  <si>
-    <t>1299.0273477</t>
-  </si>
-  <si>
-    <t>1256.99295488</t>
-  </si>
-  <si>
-    <t>1194.53007822</t>
-  </si>
-  <si>
-    <t>1121.78363598</t>
-  </si>
-  <si>
-    <t>1103.11360395</t>
-  </si>
-  <si>
-    <t>1091.89440126</t>
-  </si>
-  <si>
-    <t>1106.66413447</t>
-  </si>
-  <si>
-    <t>1102.54350985</t>
-  </si>
-  <si>
-    <t>1105.58319514</t>
-  </si>
-  <si>
-    <t>1110.82303717</t>
-  </si>
-  <si>
-    <t>1124.40662394</t>
-  </si>
-  <si>
-    <t>1130.86313986</t>
-  </si>
-  <si>
-    <t>1143.26949904</t>
-  </si>
-  <si>
-    <t>1173.61724868</t>
-  </si>
-  <si>
-    <t>1208.76597082</t>
-  </si>
-  <si>
-    <t>1254.39284423</t>
+    <t>3459</t>
+  </si>
+  <si>
+    <t>3566</t>
+  </si>
+  <si>
+    <t>3585</t>
+  </si>
+  <si>
+    <t>3633</t>
+  </si>
+  <si>
+    <t>3743</t>
+  </si>
+  <si>
+    <t>3765</t>
+  </si>
+  <si>
+    <t>3810</t>
+  </si>
+  <si>
+    <t>3848</t>
+  </si>
+  <si>
+    <t>3840</t>
+  </si>
+  <si>
+    <t>3948</t>
+  </si>
+  <si>
+    <t>4087</t>
+  </si>
+  <si>
+    <t>4114</t>
+  </si>
+  <si>
+    <t>4057</t>
+  </si>
+  <si>
+    <t>4092</t>
+  </si>
+  <si>
+    <t>4055</t>
+  </si>
+  <si>
+    <t>4047</t>
+  </si>
+  <si>
+    <t>4063</t>
+  </si>
+  <si>
+    <t>4028</t>
+  </si>
+  <si>
+    <t>4018</t>
+  </si>
+  <si>
+    <t>4774</t>
+  </si>
+  <si>
+    <t>4846</t>
+  </si>
+  <si>
+    <t>4787</t>
+  </si>
+  <si>
+    <t>4801</t>
+  </si>
+  <si>
+    <t>4414</t>
+  </si>
+  <si>
+    <t>4691</t>
+  </si>
+  <si>
+    <t>4878</t>
+  </si>
+  <si>
+    <t>4036</t>
+  </si>
+  <si>
+    <t>3419</t>
+  </si>
+  <si>
+    <t>3308</t>
+  </si>
+  <si>
+    <t>3167</t>
+  </si>
+  <si>
+    <t>3091</t>
+  </si>
+  <si>
+    <t>3043</t>
+  </si>
+  <si>
+    <t>2963</t>
+  </si>
+  <si>
+    <t>2944</t>
+  </si>
+  <si>
+    <t>2880</t>
+  </si>
+  <si>
+    <t>2743</t>
+  </si>
+  <si>
+    <t>2670</t>
+  </si>
+  <si>
+    <t>2652</t>
+  </si>
+  <si>
+    <t>2436</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2013.34268624068</t>
+  </si>
+  <si>
+    <t>2141.63413537219</t>
+  </si>
+  <si>
+    <t>2290.78463354907</t>
+  </si>
+  <si>
+    <t>2175.36187332938</t>
+  </si>
+  <si>
+    <t>2262.42871519311</t>
+  </si>
+  <si>
+    <t>2081.99546483789</t>
+  </si>
+  <si>
+    <t>2080.51341346604</t>
+  </si>
+  <si>
+    <t>1974.56567647215</t>
+  </si>
+  <si>
+    <t>1930.50779212697</t>
+  </si>
+  <si>
+    <t>1880.99875054224</t>
+  </si>
+  <si>
+    <t>1845.69908201712</t>
+  </si>
+  <si>
+    <t>1824.45508650037</t>
+  </si>
+  <si>
+    <t>1945.66548268343</t>
+  </si>
+  <si>
+    <t>2097.12337871016</t>
+  </si>
+  <si>
+    <t>2126.80514473055</t>
+  </si>
+  <si>
+    <t>2342.21916058477</t>
+  </si>
+  <si>
+    <t>2396.01808306678</t>
+  </si>
+  <si>
+    <t>2463.44491789316</t>
+  </si>
+  <si>
+    <t>2521.50471546992</t>
+  </si>
+  <si>
+    <t>2543.87329499783</t>
+  </si>
+  <si>
+    <t>2590</t>
+  </si>
+  <si>
+    <t>2654</t>
+  </si>
+  <si>
+    <t>2724</t>
+  </si>
+  <si>
+    <t>2823</t>
+  </si>
+  <si>
+    <t>2941</t>
+  </si>
+  <si>
+    <t>3064</t>
   </si>
   <si>
     <t>Description</t>
@@ -917,7 +944,7 @@
         <v>1985.0</v>
       </c>
       <c r="E37" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38">
@@ -934,7 +961,7 @@
         <v>1986.0</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39">
@@ -951,7 +978,7 @@
         <v>1987.0</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40">
@@ -968,7 +995,7 @@
         <v>1988.0</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41">
@@ -985,7 +1012,7 @@
         <v>1989.0</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42">
@@ -1002,7 +1029,7 @@
         <v>1990.0</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43">
@@ -1019,7 +1046,7 @@
         <v>1991.0</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44">
@@ -1036,7 +1063,7 @@
         <v>1992.0</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45">
@@ -1053,7 +1080,7 @@
         <v>1993.0</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46">
@@ -1070,7 +1097,7 @@
         <v>1994.0</v>
       </c>
       <c r="E46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47">
@@ -1087,7 +1114,7 @@
         <v>1995.0</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48">
@@ -1104,7 +1131,7 @@
         <v>1996.0</v>
       </c>
       <c r="E48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49">
@@ -1121,7 +1148,7 @@
         <v>1997.0</v>
       </c>
       <c r="E49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50">
@@ -1138,7 +1165,7 @@
         <v>1998.0</v>
       </c>
       <c r="E50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51">
@@ -1155,7 +1182,7 @@
         <v>1999.0</v>
       </c>
       <c r="E51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52">
@@ -1172,7 +1199,7 @@
         <v>2000.0</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53">
@@ -1189,7 +1216,7 @@
         <v>2001.0</v>
       </c>
       <c r="E53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54">
@@ -1206,7 +1233,7 @@
         <v>2002.0</v>
       </c>
       <c r="E54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55">
@@ -1223,7 +1250,7 @@
         <v>2003.0</v>
       </c>
       <c r="E55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56">
@@ -1240,7 +1267,7 @@
         <v>2004.0</v>
       </c>
       <c r="E56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57">
@@ -1257,7 +1284,7 @@
         <v>2005.0</v>
       </c>
       <c r="E57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58">
@@ -1274,7 +1301,7 @@
         <v>2006.0</v>
       </c>
       <c r="E58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59">
@@ -1291,7 +1318,7 @@
         <v>2007.0</v>
       </c>
       <c r="E59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60">
@@ -1308,7 +1335,143 @@
         <v>2008.0</v>
       </c>
       <c r="E60" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1326,50 +1489,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
